--- a/data/trans_camb/P57_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Provincia-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,53; -17,36</t>
+          <t>-30,06; -17,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,05; -18,23</t>
+          <t>-30,11; -18,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,45; -20,26</t>
+          <t>-28,15; -19,91</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-87,87; -66,56</t>
+          <t>-87,57; -67,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-84,91; -67,49</t>
+          <t>-84,48; -69,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-84,17; -71,85</t>
+          <t>-84,3; -71,31</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,56; -4,85</t>
+          <t>-12,8; -5,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -5,13</t>
+          <t>-12,67; -5,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -5,72</t>
+          <t>-11,49; -6,14</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-76,72; -35,94</t>
+          <t>-76,8; -40,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,97; -41,32</t>
+          <t>-72,29; -41,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-70,3; -43,51</t>
+          <t>-70,27; -46,11</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,46; 16,73</t>
+          <t>6,37; 17,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 10,54</t>
+          <t>-0,63; 10,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 12,15</t>
+          <t>4,97; 12,02</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>58,44; 256,9</t>
+          <t>58,67; 262,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 86,85</t>
+          <t>-3,74; 85,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,22; 121,76</t>
+          <t>34,6; 119,46</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 2,47</t>
+          <t>-8,65; 3,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,73; -10,23</t>
+          <t>-21,78; -10,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,95; -5,85</t>
+          <t>-13,57; -5,47</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,9; 17,89</t>
+          <t>-46,41; 23,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,08; -41,55</t>
+          <t>-69,27; -41,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,68; -29,37</t>
+          <t>-57,05; -28,37</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-34,3; -19,96</t>
+          <t>-34,47; -20,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-39,32; -25,5</t>
+          <t>-39,94; -25,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-34,84; -24,79</t>
+          <t>-35,69; -25,37</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-87,25; -67,84</t>
+          <t>-86,54; -67,02</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-84,32; -69,43</t>
+          <t>-84,67; -70,66</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-83,46; -72,43</t>
+          <t>-84,59; -72,98</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 9,24</t>
+          <t>-3,4; 10,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 7,06</t>
+          <t>-5,73; 7,25</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 6,26</t>
+          <t>-2,79; 6,42</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 62,35</t>
+          <t>-15,81; 70,61</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 40,81</t>
+          <t>-22,13; 41,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 36,96</t>
+          <t>-12,33; 36,37</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,6; -3,16</t>
+          <t>-10,73; -3,3</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-15,41; -5,38</t>
+          <t>-15,07; -5,73</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -5,36</t>
+          <t>-11,74; -5,33</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-56,72; -21,19</t>
+          <t>-58,62; -20,93</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-69,11; -29,46</t>
+          <t>-69,29; -30,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-58,94; -31,9</t>
+          <t>-59,6; -32,09</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 5,85</t>
+          <t>-3,68; 5,45</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>3,64; 12,82</t>
+          <t>4,02; 12,64</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,39; 8,02</t>
+          <t>1,13; 7,96</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 32,22</t>
+          <t>-16,74; 30,08</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>13,47; 56,86</t>
+          <t>14,45; 53,52</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>5,89; 37,49</t>
+          <t>4,4; 37,32</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-6,62; -2,81</t>
+          <t>-6,83; -2,91</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -4,41</t>
+          <t>-8,7; -4,59</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -4,25</t>
+          <t>-6,94; -4,34</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-33,96; -16,5</t>
+          <t>-34,2; -16,8</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-35,44; -20,22</t>
+          <t>-35,9; -20,69</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-32,07; -20,99</t>
+          <t>-32,11; -21,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Provincia-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-30,06; -17,82</t>
+          <t>-29,61; -17,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,11; -18,82</t>
+          <t>-30,31; -18,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,15; -19,91</t>
+          <t>-28,16; -19,49</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-87,57; -67,76</t>
+          <t>-87,1; -67,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-84,48; -69,78</t>
+          <t>-84,76; -69,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-84,3; -71,31</t>
+          <t>-84,53; -71,5</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,8; -5,14</t>
+          <t>-13,24; -4,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,67; -5,46</t>
+          <t>-12,53; -5,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,49; -6,14</t>
+          <t>-11,43; -6,11</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-76,8; -40,03</t>
+          <t>-76,29; -35,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-72,29; -41,74</t>
+          <t>-71,39; -41,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-70,27; -46,11</t>
+          <t>-70,17; -46,13</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,37; 17,01</t>
+          <t>6,35; 16,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 10,53</t>
+          <t>0,04; 10,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 12,02</t>
+          <t>4,76; 12,05</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>58,67; 262,9</t>
+          <t>52,12; 251,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 85,67</t>
+          <t>-0,29; 90,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,6; 119,46</t>
+          <t>31,58; 117,95</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 3,13</t>
+          <t>-8,34; 2,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,78; -10,06</t>
+          <t>-21,62; -10,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,57; -5,47</t>
+          <t>-13,49; -5,9</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,41; 23,89</t>
+          <t>-45,25; 17,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,27; -41,69</t>
+          <t>-68,9; -41,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-57,05; -28,37</t>
+          <t>-56,33; -28,79</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-34,47; -20,32</t>
+          <t>-33,98; -20,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-39,94; -25,65</t>
+          <t>-40,77; -25,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-35,69; -25,37</t>
+          <t>-34,79; -25,11</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-86,54; -67,02</t>
+          <t>-86,51; -66,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-84,67; -70,66</t>
+          <t>-84,53; -70,41</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-84,59; -72,98</t>
+          <t>-84,18; -72,89</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 10,2</t>
+          <t>-3,25; 9,61</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 7,25</t>
+          <t>-6,1; 6,25</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 6,42</t>
+          <t>-2,39; 6,42</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 70,61</t>
+          <t>-14,47; 63,2</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 41,3</t>
+          <t>-23,22; 34,95</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 36,37</t>
+          <t>-10,62; 37,28</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,73; -3,3</t>
+          <t>-10,67; -2,87</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-15,07; -5,73</t>
+          <t>-15,11; -5,42</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -5,33</t>
+          <t>-11,98; -5,45</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-58,62; -20,93</t>
+          <t>-58,76; -21,01</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-69,29; -30,91</t>
+          <t>-66,42; -29,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-59,6; -32,09</t>
+          <t>-60,66; -32,45</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 5,45</t>
+          <t>-3,82; 5,78</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>4,02; 12,64</t>
+          <t>4,04; 12,42</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,13; 7,96</t>
+          <t>1,26; 7,97</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 30,08</t>
+          <t>-17,95; 32,08</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>14,45; 53,52</t>
+          <t>15,17; 54,46</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>4,4; 37,32</t>
+          <t>5,34; 37,7</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-6,83; -2,91</t>
+          <t>-6,71; -2,94</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-8,7; -4,59</t>
+          <t>-8,84; -4,7</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-6,94; -4,34</t>
+          <t>-6,82; -4,12</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-34,2; -16,8</t>
+          <t>-34,28; -16,46</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-35,9; -20,69</t>
+          <t>-36,27; -20,98</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-32,11; -21,33</t>
+          <t>-31,93; -20,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,61; -17,42</t>
+          <t>-29,53; -17,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,31; -18,43</t>
+          <t>-30,05; -18,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,16; -19,49</t>
+          <t>-28,45; -20,26</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-87,1; -67,58</t>
+          <t>-87,87; -66,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-84,76; -69,16</t>
+          <t>-84,91; -67,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-84,53; -71,5</t>
+          <t>-84,17; -71,85</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,24; -4,95</t>
+          <t>-12,56; -4,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,53; -5,33</t>
+          <t>-12,44; -5,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,43; -6,11</t>
+          <t>-11,47; -5,72</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-76,29; -35,85</t>
+          <t>-76,72; -35,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-71,39; -41,97</t>
+          <t>-70,97; -41,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-70,17; -46,13</t>
+          <t>-70,3; -43,51</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,35; 16,75</t>
+          <t>6,46; 16,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 10,89</t>
+          <t>0,2; 10,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,76; 12,05</t>
+          <t>4,32; 12,15</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>52,12; 251,09</t>
+          <t>58,44; 256,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 90,67</t>
+          <t>0,72; 86,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>31,58; 117,95</t>
+          <t>30,22; 121,76</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 2,32</t>
+          <t>-8,81; 2,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,62; -10,42</t>
+          <t>-21,73; -10,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,49; -5,9</t>
+          <t>-13,95; -5,85</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-45,25; 17,97</t>
+          <t>-47,9; 17,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,9; -41,41</t>
+          <t>-68,08; -41,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,33; -28,79</t>
+          <t>-56,68; -29,37</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-33,98; -20,0</t>
+          <t>-34,3; -19,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-40,77; -25,75</t>
+          <t>-39,32; -25,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-34,79; -25,11</t>
+          <t>-34,84; -24,79</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-86,51; -66,92</t>
+          <t>-87,25; -67,84</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-84,53; -70,41</t>
+          <t>-84,32; -69,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-84,18; -72,89</t>
+          <t>-83,46; -72,43</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 9,61</t>
+          <t>-3,45; 9,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 6,25</t>
+          <t>-5,84; 7,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 6,42</t>
+          <t>-2,63; 6,26</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 63,2</t>
+          <t>-16,28; 62,35</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-23,22; 34,95</t>
+          <t>-23,13; 40,81</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 37,28</t>
+          <t>-11,49; 36,96</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -2,87</t>
+          <t>-10,6; -3,16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-15,11; -5,42</t>
+          <t>-15,41; -5,38</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,98; -5,45</t>
+          <t>-11,8; -5,36</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-58,76; -21,01</t>
+          <t>-56,72; -21,19</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-66,42; -29,91</t>
+          <t>-69,11; -29,46</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-60,66; -32,45</t>
+          <t>-58,94; -31,9</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 5,78</t>
+          <t>-3,31; 5,85</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>4,04; 12,42</t>
+          <t>3,64; 12,82</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,26; 7,97</t>
+          <t>1,39; 8,02</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 32,08</t>
+          <t>-15,84; 32,22</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>15,17; 54,46</t>
+          <t>13,47; 56,86</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>5,34; 37,7</t>
+          <t>5,89; 37,49</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-6,71; -2,94</t>
+          <t>-6,62; -2,81</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -4,7</t>
+          <t>-8,84; -4,41</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -4,12</t>
+          <t>-6,97; -4,25</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-34,28; -16,46</t>
+          <t>-33,96; -16,5</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-36,27; -20,98</t>
+          <t>-35,44; -20,22</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-31,93; -20,61</t>
+          <t>-32,07; -20,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Provincia-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-23,66</t>
+          <t>-24,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-24,36</t>
+          <t>-24,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-24,0</t>
+          <t>-24,32</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,53; -17,36</t>
+          <t>-29,95; -17,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,05; -18,23</t>
+          <t>-30,34; -18,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,45; -20,26</t>
+          <t>-28,71; -20,51</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-79,24%</t>
+          <t>-80,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-78,42%</t>
+          <t>-79,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-78,8%</t>
+          <t>-79,84%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-87,87; -66,56</t>
+          <t>-88,68; -68,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-84,91; -67,49</t>
+          <t>-85,54; -68,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-84,17; -71,85</t>
+          <t>-85,03; -72,75</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,73</t>
+          <t>-8,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,82</t>
+          <t>-8,83</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,56; -4,85</t>
+          <t>-12,63; -4,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -5,13</t>
+          <t>-12,45; -5,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -5,72</t>
+          <t>-11,41; -5,55</t>
         </is>
       </c>
     </row>
@@ -703,12 +703,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-58,85%</t>
+          <t>-58,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-60,33%</t>
+          <t>-60,39%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-76,72; -35,94</t>
+          <t>-76,92; -34,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,97; -41,32</t>
+          <t>-70,99; -41,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-70,3; -43,51</t>
+          <t>-70,49; -42,56</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,49</t>
+          <t>11,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>8,15</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,46; 16,73</t>
+          <t>5,96; 16,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 10,54</t>
+          <t>0,21; 10,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 12,15</t>
+          <t>4,03; 11,97</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>135,7%</t>
+          <t>131,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>69,61%</t>
+          <t>67,5%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>58,44; 256,9</t>
+          <t>54,73; 248,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 86,85</t>
+          <t>0,55; 85,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,22; 121,76</t>
+          <t>28,42; 119,91</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-15,86</t>
+          <t>-17,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,66</t>
+          <t>-10,99</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 2,47</t>
+          <t>-9,05; 2,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,73; -10,23</t>
+          <t>-24,66; -12,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,95; -5,85</t>
+          <t>-15,89; -6,91</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-19,38%</t>
+          <t>-20,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-56,64%</t>
+          <t>-63,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-43,74%</t>
+          <t>-49,76%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,9; 17,89</t>
+          <t>-48,3; 17,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-68,08; -41,55</t>
+          <t>-79,44; -48,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-56,68; -29,37</t>
+          <t>-65,01; -33,49</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-27,12</t>
+          <t>-27,15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-32,66</t>
+          <t>-32,6</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-29,89</t>
+          <t>-29,87</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-34,3; -19,96</t>
+          <t>-34,3; -19,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-39,32; -25,5</t>
+          <t>-39,26; -25,48</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-34,84; -24,79</t>
+          <t>-34,85; -24,8</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-78,98%</t>
+          <t>-79,08%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-78,68%</t>
+          <t>-78,53%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-78,68%</t>
+          <t>-78,65%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-87,25; -67,84</t>
+          <t>-87,46; -67,97</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-84,32; -69,43</t>
+          <t>-84,17; -69,47</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-83,46; -72,43</t>
+          <t>-83,43; -72,35</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,81</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 9,24</t>
+          <t>-3,72; 8,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 7,06</t>
+          <t>-5,84; 7,08</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 6,26</t>
+          <t>-2,77; 6,18</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,01%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 62,35</t>
+          <t>-17,45; 59,93</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 40,81</t>
+          <t>-22,95; 40,93</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 36,96</t>
+          <t>-11,85; 36,14</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-6,97</t>
+          <t>-7,12</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-9,63</t>
+          <t>-11,01</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-8,24</t>
+          <t>-9,07</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,6; -3,16</t>
+          <t>-10,73; -3,33</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-15,41; -5,38</t>
+          <t>-17,99; -6,25</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -5,36</t>
+          <t>-13,65; -6,15</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-42,65%</t>
+          <t>-43,57%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-46,37%</t>
+          <t>-53,01%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-44,3%</t>
+          <t>-48,78%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-56,72; -21,19</t>
+          <t>-57,47; -21,86</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-69,11; -29,46</t>
+          <t>-79,31; -32,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-58,94; -31,9</t>
+          <t>-68,59; -35,25</t>
         </is>
       </c>
     </row>
@@ -1228,17 +1228,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>8,79</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>1,69</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 5,85</t>
+          <t>-13,09; 4,03</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>3,64; 12,82</t>
+          <t>4,24; 13,3</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,39; 8,02</t>
+          <t>-7,37; 6,76</t>
         </is>
       </c>
     </row>
@@ -1274,17 +1274,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>-15,1%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>34,49%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>7,46%</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 32,22</t>
+          <t>-62,16; 20,48</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>13,47; 56,86</t>
+          <t>15,51; 59,19</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>5,89; 37,49</t>
+          <t>-31,58; 30,5</t>
         </is>
       </c>
     </row>
@@ -1324,17 +1324,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>-6,89</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-6,62; -2,81</t>
+          <t>-9,07; -3,92</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -4,41</t>
+          <t>-10,91; -5,5</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -4,25</t>
+          <t>-8,8; -5,35</t>
         </is>
       </c>
     </row>
@@ -1370,17 +1370,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-25,85%</t>
+          <t>-32,71%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-27,43%</t>
+          <t>-32,82%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-26,47%</t>
+          <t>-32,73%</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-33,96; -16,5</t>
+          <t>-46,66; -22,55</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-35,44; -20,22</t>
+          <t>-45,74; -24,66</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-32,07; -20,99</t>
+          <t>-40,94; -26,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_R-Provincia-trans_camb.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,95; -17,73</t>
+          <t>-30,32; -18,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-30,34; -18,51</t>
+          <t>-30,89; -18,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,71; -20,51</t>
+          <t>-28,69; -19,73</t>
         </is>
       </c>
     </row>
@@ -625,24 +625,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-88,68; -68,28</t>
+          <t>-87,99; -67,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,54; -68,67</t>
+          <t>-86,21; -71,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-85,03; -72,75</t>
+          <t>-85,13; -72,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,63; -4,76</t>
+          <t>-12,89; -4,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,45; -5,1</t>
+          <t>-12,53; -4,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,41; -5,55</t>
+          <t>-11,52; -6,01</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-76,92; -34,43</t>
+          <t>-77,14; -34,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-70,99; -41,49</t>
+          <t>-70,62; -39,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-70,49; -42,56</t>
+          <t>-71,08; -45,11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 16,23</t>
+          <t>5,93; 16,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 10,54</t>
+          <t>-0,21; 10,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 11,97</t>
+          <t>4,37; 11,66</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>54,73; 248,25</t>
+          <t>55,95; 264,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 85,83</t>
+          <t>-1,75; 84,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,42; 119,91</t>
+          <t>30,82; 115,13</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 2,19</t>
+          <t>-8,82; 2,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-24,66; -12,23</t>
+          <t>-24,96; -12,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,89; -6,91</t>
+          <t>-15,49; -7,06</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-48,3; 17,69</t>
+          <t>-47,47; 17,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-79,44; -48,22</t>
+          <t>-78,99; -47,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,01; -33,49</t>
+          <t>-63,53; -34,79</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-34,3; -19,97</t>
+          <t>-34,21; -20,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-39,26; -25,48</t>
+          <t>-39,9; -26,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-34,85; -24,8</t>
+          <t>-34,97; -25,08</t>
         </is>
       </c>
     </row>
@@ -1009,24 +1009,24 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-87,46; -67,97</t>
+          <t>-86,65; -68,24</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-84,17; -69,47</t>
+          <t>-84,65; -71,04</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-83,43; -72,35</t>
+          <t>-83,47; -71,6</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 8,99</t>
+          <t>-4,17; 8,49</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 7,08</t>
+          <t>-5,76; 7,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 6,18</t>
+          <t>-2,58; 6,47</t>
         </is>
       </c>
     </row>
@@ -1105,24 +1105,24 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 59,93</t>
+          <t>-18,28; 56,83</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 40,93</t>
+          <t>-23,23; 39,61</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 36,14</t>
+          <t>-11,55; 37,72</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,73; -3,33</t>
+          <t>-11,13; -3,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-17,99; -6,25</t>
+          <t>-18,22; -6,28</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-13,65; -6,15</t>
+          <t>-13,06; -6,2</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-57,47; -21,86</t>
+          <t>-59,46; -23,27</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-79,31; -32,97</t>
+          <t>-82,24; -32,62</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-68,59; -35,25</t>
+          <t>-67,23; -35,85</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 4,03</t>
+          <t>-14,25; 4,26</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>4,24; 13,3</t>
+          <t>4,37; 12,79</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 6,76</t>
+          <t>-8,91; 6,8</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-62,16; 20,48</t>
+          <t>-65,83; 22,57</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>15,51; 59,19</t>
+          <t>15,73; 55,8</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 30,5</t>
+          <t>-36,78; 30,67</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-9,07; -3,92</t>
+          <t>-8,62; -3,84</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-10,91; -5,5</t>
+          <t>-10,63; -5,58</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-8,8; -5,35</t>
+          <t>-8,88; -5,31</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-46,66; -22,55</t>
+          <t>-45,62; -22,16</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-45,74; -24,66</t>
+          <t>-44,5; -25,08</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-40,94; -26,06</t>
+          <t>-41,48; -26,16</t>
         </is>
       </c>
     </row>
